--- a/doc/PinMap.xlsx
+++ b/doc/PinMap.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.My_Tech_Studio\1.Project\MyOECU\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE993174-C215-4049-93C5-7683026DD920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C62042-AF05-4B98-9D03-460AEEE21E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RGMII" sheetId="1" r:id="rId1"/>
+    <sheet name="PS" sheetId="2" r:id="rId2"/>
+    <sheet name="BUS1A" sheetId="3" r:id="rId3"/>
+    <sheet name="BUS1B" sheetId="4" r:id="rId4"/>
+    <sheet name="BUS2A" sheetId="5" r:id="rId5"/>
+    <sheet name="BUS2B" sheetId="6" r:id="rId6"/>
+    <sheet name="BUS3A" sheetId="7" r:id="rId7"/>
+    <sheet name="BUS3B" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RGMII!$A$2:$J$15</definedName>
@@ -28,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="127">
   <si>
     <t>MDIO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,30 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PL_PHY1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PL_PHY2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PL_PHY3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PL_PHY4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PL_PHY5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PL_PHY6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PS_PHY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,14 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Seq1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seq2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IO34_5N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -511,6 +486,62 @@
   </si>
   <si>
     <t>IO34_1N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心板(mil)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总长(mil)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底板线长(mil)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUS1A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUS1B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUS2A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUS2B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUS3A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUS3B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -841,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -854,36 +885,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>114</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -892,30 +926,30 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -924,30 +958,30 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -956,30 +990,30 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -988,30 +1022,30 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -1020,30 +1054,30 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -1052,30 +1086,30 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
@@ -1084,30 +1118,30 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -1116,30 +1150,30 @@
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
@@ -1148,30 +1182,30 @@
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -1180,30 +1214,30 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
@@ -1212,30 +1246,30 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
@@ -1244,30 +1278,30 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
@@ -1276,30 +1310,30 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
@@ -1308,32 +1342,1391 @@
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J15">
-    <sortCondition ref="B2:B15"/>
+    <sortCondition ref="B1:B15"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2198469C-83D1-45C2-BB60-C36C517A15C4}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1259.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1313.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1616.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1431.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1228.4100000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1410.68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1459.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1494.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1199.74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1543.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1352.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3507.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3806.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5862D16-B648-41F8-BC8C-6155D3A4494E}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1343.89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1540.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1335.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1540.71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="1">
+        <v>775.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1">
+        <v>775.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1488.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1401.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1487.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1260.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1400.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1">
+        <v>724.86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1">
+        <v>706.37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93261651-9ACA-48CF-A58C-FEFFF0361CF5}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1235.73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1">
+        <v>834.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1">
+        <v>720.68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1035.8699999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1">
+        <v>715.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1039.74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="1">
+        <v>832.76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1">
+        <v>704.56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1">
+        <v>701.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1">
+        <v>701.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1239.3900000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="1">
+        <v>726.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="1">
+        <v>736.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="1">
+        <v>733.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A1D9F2-E82C-4F14-8C6B-AC0BFAD5B59E}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1160.97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1162.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1235.6300000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1238.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1152.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1150.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1296.0999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2279.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1857.69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1850.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1294.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2283.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1030.3499999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1023.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C478F0-2364-42A2-960C-4C48C4B085CA}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="11.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1">
+        <v>456.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="1">
+        <v>491.41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="1">
+        <v>545.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="1">
+        <v>495.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1">
+        <v>546.58000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="1">
+        <v>495.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>493.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="1">
+        <v>548.66999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="1">
+        <v>623.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="1">
+        <v>546.86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="1">
+        <v>456.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="1">
+        <v>628.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="1">
+        <v>607.28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="1">
+        <v>610.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A023F9-A630-40F2-90F0-68B5547D10FB}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="11.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1">
+        <v>762.59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="1">
+        <v>907.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="1">
+        <v>828.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1011.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="1">
+        <v>827.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1028.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="1">
+        <v>925.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="1">
+        <v>705.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1088.3900000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1081.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="1">
+        <v>763.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="1">
+        <v>701.81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="1">
+        <v>900.56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1080.8699999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B24199-6869-4102-BECF-FF79DC2D4899}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1161.1099999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1370.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1163.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1372.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1412.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1414.86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1169.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1066.57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1171.8499999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1170.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1153.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="1">
+        <v>901.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1479.88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1482.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/PinMap.xlsx
+++ b/doc/PinMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.My_Tech_Studio\1.Project\MyOECU\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C62042-AF05-4B98-9D03-460AEEE21E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962BF1A2-0196-4CC2-9D90-4DABC6FB5F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RGMII" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,6 +562,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -585,9 +592,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2347,8 +2357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A023F9-A630-40F2-90F0-68B5547D10FB}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2458,7 +2468,7 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C9" s="1">
@@ -2502,7 +2512,7 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="1">
@@ -2541,7 +2551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B24199-6869-4102-BECF-FF79DC2D4899}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/doc/PinMap.xlsx
+++ b/doc/PinMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.My_Tech_Studio\1.Project\MyOECU\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962BF1A2-0196-4CC2-9D90-4DABC6FB5F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65F3DDD-38D1-4BA3-8EA4-ACEE4830B370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RGMII!$A$2:$J$15</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="129">
   <si>
     <t>MDIO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -505,10 +505,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>底板线长(mil)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>引脚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,6 +538,18 @@
   </si>
   <si>
     <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标线长(mil)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标底板线长(mil)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原底板线长(mil)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,12 +580,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -592,12 +624,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -901,28 +945,28 @@
         <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1384,190 +1428,394 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2198469C-83D1-45C2-BB60-C36C517A15C4}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="18.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>1314</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="3">
+        <v>2127.777</v>
+      </c>
+      <c r="E2" s="3">
+        <f>D2+C2</f>
+        <v>3441.777</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4069.4250000000002</v>
+      </c>
+      <c r="G2" s="4">
+        <f>F2-C2</f>
+        <v>2755.4250000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>1259.03</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="3">
+        <v>2460.6669999999999</v>
+      </c>
+      <c r="E3" s="3">
+        <f>D3+C3</f>
+        <v>3719.6970000000001</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4069.4250000000002</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G13" si="0">F3-C3</f>
+        <v>2810.3950000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>1313.48</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="D4" s="3">
+        <v>2446.5810000000001</v>
+      </c>
+      <c r="E4" s="3">
+        <f>D4+C4</f>
+        <v>3760.0610000000001</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4069.4250000000002</v>
+      </c>
+      <c r="G4" s="4">
+        <f>F4-C4</f>
+        <v>2755.9450000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>1616.49</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="D5" s="3">
+        <v>2452.9349999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <f>D5+C5</f>
+        <v>4069.4250000000002</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4069.4250000000002</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>2452.9350000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>1431.49</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="D6" s="3">
+        <v>2475.8539999999998</v>
+      </c>
+      <c r="E6" s="3">
+        <f>D6+C6</f>
+        <v>3907.3440000000001</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4069.4250000000002</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>2637.9350000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>1228.4100000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="D7" s="3">
+        <v>2296.5129999999999</v>
+      </c>
+      <c r="E7" s="3">
+        <f>D7+C7</f>
+        <v>3524.9229999999998</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4069.4250000000002</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>2841.0150000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>1410.68</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="D8" s="2">
+        <v>2344.6999999999998</v>
+      </c>
+      <c r="E8" s="2">
+        <f>D8+C8</f>
+        <v>3755.38</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3755.38</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>2344.6999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>1459.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="D9" s="2">
+        <v>1895.6320000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <f>D9+C9</f>
+        <v>3355.5320000000002</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3755.38</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>2295.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>1494.78</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="D10" s="2">
+        <v>1876.527</v>
+      </c>
+      <c r="E10" s="2">
+        <f>D10+C10</f>
+        <v>3371.3069999999998</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3755.38</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>2260.6000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>1199.74</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="D11" s="2">
+        <v>2039.0050000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <f>D11+C11</f>
+        <v>3238.7449999999999</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3755.38</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>2555.6400000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>1543.44</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="D12" s="2">
+        <v>1930.127</v>
+      </c>
+      <c r="E12" s="2">
+        <f>D12+C12</f>
+        <v>3473.567</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3755.38</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>2211.94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>1352.49</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="D13" s="2">
+        <v>2339.8440000000001</v>
+      </c>
+      <c r="E13" s="2">
+        <f>D13+C13</f>
+        <v>3692.3339999999998</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3755.38</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>2402.8900000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5">
         <v>3507.74</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="D14" s="5">
+        <v>2305.297</v>
+      </c>
+      <c r="E14" s="5">
+        <f>D14+C14</f>
+        <v>5813.0370000000003</v>
+      </c>
+      <c r="F14" s="5">
+        <v>6175.1659999999993</v>
+      </c>
+      <c r="G14" s="4">
+        <f>F14-C14</f>
+        <v>2667.4259999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="5">
         <v>3806.12</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2369.0459999999998</v>
+      </c>
+      <c r="E15" s="5">
+        <f>D15+C15</f>
+        <v>6175.1659999999993</v>
+      </c>
+      <c r="F15" s="5">
+        <v>6175.1659999999993</v>
+      </c>
+      <c r="G15" s="4">
+        <f>F15-C15</f>
+        <v>2369.0459999999994</v>
       </c>
     </row>
   </sheetData>
@@ -1579,10 +1827,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5862D16-B648-41F8-BC8C-6155D3A4494E}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1594,174 +1842,180 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>1343.89</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>1540.72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>1335.39</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>1540.71</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>775.22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>775.22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>1488.9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>1401.12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>1265</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>1487.9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>1260.32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>1400.22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5">
         <v>724.86</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="5">
         <v>706.37</v>
       </c>
     </row>
@@ -1773,10 +2027,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93261651-9ACA-48CF-A58C-FEFFF0361CF5}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1788,174 +2042,180 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>1235.73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>834.43</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>720.68</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>1035.8699999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>715.62</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>1039.74</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>832.76</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>704.56</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>701.95</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>701.95</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>1239.3900000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>726.65</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5">
         <v>736.26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="5">
         <v>733.01</v>
       </c>
     </row>
@@ -1967,10 +2227,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A1D9F2-E82C-4F14-8C6B-AC0BFAD5B59E}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1982,174 +2242,180 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>1160.97</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>1162.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>1235.6300000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>1238.67</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>1152.96</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>1150.55</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>1296.0999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>2279.25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>1857.69</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>1850.24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>1294.23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>2283.65</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5">
         <v>1030.3499999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="5">
         <v>1023.8</v>
       </c>
     </row>
@@ -2161,10 +2427,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C478F0-2364-42A2-960C-4C48C4B085CA}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2176,174 +2442,180 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>456.67</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>491.41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>545.48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>495.19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>546.58000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>495.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>493.22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>548.66999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>623.84</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>546.86</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>456.67</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>628.9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5">
         <v>607.28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="5">
         <v>610.66</v>
       </c>
     </row>
@@ -2355,10 +2627,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A023F9-A630-40F2-90F0-68B5547D10FB}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2370,174 +2642,180 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>762.59</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>907.06</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>828.35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>1011.26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>827.66</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>1028.8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>925.11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>705.2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>1088.3900000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>1081.2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>763.27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>701.81</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5">
         <v>900.56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="5">
         <v>1080.8699999999999</v>
       </c>
     </row>
@@ -2549,190 +2827,380 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B24199-6869-4102-BECF-FF79DC2D4899}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>1161.1099999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="3">
+        <v>2074.0410000000002</v>
+      </c>
+      <c r="E2" s="3">
+        <f>D2+C2</f>
+        <v>3235.1509999999998</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3809.3469999999998</v>
+      </c>
+      <c r="G2" s="3">
+        <f>F2-C2</f>
+        <v>2648.2370000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>1370.08</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="3">
+        <v>1702.578</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E15" si="0">D3+C3</f>
+        <v>3072.6579999999999</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3809.3469999999998</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G13" si="1">F3-C3</f>
+        <v>2439.2669999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>1163.75</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="D4" s="3">
+        <v>2071.5819999999999</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>3235.3319999999999</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3809.3469999999998</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
+        <v>2645.5969999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>1372.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="D5" s="3">
+        <v>1716.1410000000001</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>3089.0410000000002</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3809.3469999999998</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>2436.4469999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>1412.02</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="D6" s="3">
+        <v>2371.4340000000002</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>3783.4540000000002</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3809.3469999999998</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>2397.3269999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>1414.86</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="D7" s="3">
+        <v>2394.4870000000001</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>3809.3469999999998</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3809.3469999999998</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>2394.4870000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>1169.32</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="D8" s="2">
+        <v>1699.56</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>2868.88</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3266.145</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>2096.8249999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>1066.57</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="D9" s="2">
+        <v>1759.8219999999999</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>2826.3919999999998</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3266.145</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>2199.5749999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>1171.8499999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="D10" s="2">
+        <v>2094.2950000000001</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>3266.145</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3266.145</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>2094.2950000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>1170.55</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="D11" s="2">
+        <v>1702.492</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>2873.0419999999999</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3266.145</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>2095.5950000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>1153.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="D12" s="2">
+        <v>2096.4229999999998</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>3249.6729999999998</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3266.145</v>
+      </c>
+      <c r="G12" s="3">
+        <f>F12-C12</f>
+        <v>2112.895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>901.66</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="D13" s="2">
+        <v>2204.779</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>3106.4389999999999</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3266.145</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>2364.4850000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5">
         <v>1479.88</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="D14" s="5">
+        <v>2560.192</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>4040.0720000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="5">
         <v>1482.76</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2558.1390000000001</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>4040.8990000000003</v>
       </c>
     </row>
   </sheetData>

--- a/doc/PinMap.xlsx
+++ b/doc/PinMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.My_Tech_Studio\1.Project\MyOECU\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65F3DDD-38D1-4BA3-8EA4-ACEE4830B370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4F1DE8-21B6-4A18-A707-98E311ED7606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RGMII" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="157">
   <si>
     <t>MDIO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -551,6 +551,90 @@
   <si>
     <t>原底板线长(mil)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO35_14P</t>
+  </si>
+  <si>
+    <t>IO35_14N</t>
+  </si>
+  <si>
+    <t>IO35_23P</t>
+  </si>
+  <si>
+    <t>IO35_23N</t>
+  </si>
+  <si>
+    <t>IO35_22N</t>
+  </si>
+  <si>
+    <t>IO35_22P</t>
+  </si>
+  <si>
+    <t>IO35_9N</t>
+  </si>
+  <si>
+    <t>IO34_14P</t>
+  </si>
+  <si>
+    <t>IO35_7P</t>
+  </si>
+  <si>
+    <t>IO35_7N</t>
+  </si>
+  <si>
+    <t>IO35_9P</t>
+  </si>
+  <si>
+    <t>IO34_14N</t>
+  </si>
+  <si>
+    <t>IO35_17P</t>
+  </si>
+  <si>
+    <t>IO35_20N</t>
+  </si>
+  <si>
+    <t>IO34_10P</t>
+  </si>
+  <si>
+    <t>IO34_10N</t>
+  </si>
+  <si>
+    <t>IO34_18P</t>
+  </si>
+  <si>
+    <t>IO34_18N</t>
+  </si>
+  <si>
+    <t>IO34_21P</t>
+  </si>
+  <si>
+    <t>IO34_21N</t>
+  </si>
+  <si>
+    <t>IO34_16P</t>
+  </si>
+  <si>
+    <t>IO34_22N</t>
+  </si>
+  <si>
+    <t>IO34_17P</t>
+  </si>
+  <si>
+    <t>IO34_17N</t>
+  </si>
+  <si>
+    <t>IO34_16N</t>
+  </si>
+  <si>
+    <t>IO34_22P</t>
+  </si>
+  <si>
+    <t>IO34_15N</t>
+  </si>
+  <si>
+    <t>IO34_15P</t>
   </si>
 </sst>
 </file>
@@ -580,7 +664,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,6 +695,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -624,7 +720,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -642,6 +738,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -926,15 +1028,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="6" width="9" style="7"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -950,10 +1054,10 @@
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -982,20 +1086,20 @@
       <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="7" t="s">
         <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>104</v>
@@ -1014,20 +1118,20 @@
       <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>105</v>
@@ -1046,20 +1150,20 @@
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>106</v>
@@ -1078,20 +1182,20 @@
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>107</v>
@@ -1110,20 +1214,20 @@
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>108</v>
@@ -1142,10 +1246,10 @@
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1174,20 +1278,20 @@
       <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>103</v>
@@ -1206,17 +1310,17 @@
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>85</v>
@@ -1238,20 +1342,20 @@
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="7" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>100</v>
@@ -1270,20 +1374,20 @@
       <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>101</v>
@@ -1302,20 +1406,20 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="7" t="s">
         <v>60</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>102</v>
@@ -1334,10 +1438,10 @@
       <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1366,10 +1470,10 @@
       <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1398,10 +1502,10 @@
       <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1482,7 +1586,7 @@
         <v>2127.777</v>
       </c>
       <c r="E2" s="3">
-        <f>D2+C2</f>
+        <f t="shared" ref="E2:E15" si="0">D2+C2</f>
         <v>3441.777</v>
       </c>
       <c r="F2" s="3">
@@ -1507,14 +1611,14 @@
         <v>2460.6669999999999</v>
       </c>
       <c r="E3" s="3">
-        <f>D3+C3</f>
+        <f t="shared" si="0"/>
         <v>3719.6970000000001</v>
       </c>
       <c r="F3" s="3">
         <v>4069.4250000000002</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G13" si="0">F3-C3</f>
+        <f t="shared" ref="G3:G13" si="1">F3-C3</f>
         <v>2810.3950000000004</v>
       </c>
     </row>
@@ -1532,7 +1636,7 @@
         <v>2446.5810000000001</v>
       </c>
       <c r="E4" s="3">
-        <f>D4+C4</f>
+        <f t="shared" si="0"/>
         <v>3760.0610000000001</v>
       </c>
       <c r="F4" s="3">
@@ -1557,14 +1661,14 @@
         <v>2452.9349999999999</v>
       </c>
       <c r="E5" s="3">
-        <f>D5+C5</f>
+        <f t="shared" si="0"/>
         <v>4069.4250000000002</v>
       </c>
       <c r="F5" s="3">
         <v>4069.4250000000002</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2452.9350000000004</v>
       </c>
     </row>
@@ -1582,14 +1686,14 @@
         <v>2475.8539999999998</v>
       </c>
       <c r="E6" s="3">
-        <f>D6+C6</f>
+        <f t="shared" si="0"/>
         <v>3907.3440000000001</v>
       </c>
       <c r="F6" s="3">
         <v>4069.4250000000002</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2637.9350000000004</v>
       </c>
     </row>
@@ -1607,14 +1711,14 @@
         <v>2296.5129999999999</v>
       </c>
       <c r="E7" s="3">
-        <f>D7+C7</f>
+        <f t="shared" si="0"/>
         <v>3524.9229999999998</v>
       </c>
       <c r="F7" s="3">
         <v>4069.4250000000002</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2841.0150000000003</v>
       </c>
     </row>
@@ -1632,14 +1736,14 @@
         <v>2344.6999999999998</v>
       </c>
       <c r="E8" s="2">
-        <f>D8+C8</f>
+        <f t="shared" si="0"/>
         <v>3755.38</v>
       </c>
       <c r="F8" s="2">
         <v>3755.38</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2344.6999999999998</v>
       </c>
     </row>
@@ -1657,14 +1761,14 @@
         <v>1895.6320000000001</v>
       </c>
       <c r="E9" s="2">
-        <f>D9+C9</f>
+        <f t="shared" si="0"/>
         <v>3355.5320000000002</v>
       </c>
       <c r="F9" s="2">
         <v>3755.38</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2295.48</v>
       </c>
     </row>
@@ -1682,14 +1786,14 @@
         <v>1876.527</v>
       </c>
       <c r="E10" s="2">
-        <f>D10+C10</f>
+        <f t="shared" si="0"/>
         <v>3371.3069999999998</v>
       </c>
       <c r="F10" s="2">
         <v>3755.38</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2260.6000000000004</v>
       </c>
     </row>
@@ -1707,14 +1811,14 @@
         <v>2039.0050000000001</v>
       </c>
       <c r="E11" s="2">
-        <f>D11+C11</f>
+        <f t="shared" si="0"/>
         <v>3238.7449999999999</v>
       </c>
       <c r="F11" s="2">
         <v>3755.38</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2555.6400000000003</v>
       </c>
     </row>
@@ -1732,14 +1836,14 @@
         <v>1930.127</v>
       </c>
       <c r="E12" s="2">
-        <f>D12+C12</f>
+        <f t="shared" si="0"/>
         <v>3473.567</v>
       </c>
       <c r="F12" s="2">
         <v>3755.38</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2211.94</v>
       </c>
     </row>
@@ -1757,14 +1861,14 @@
         <v>2339.8440000000001</v>
       </c>
       <c r="E13" s="2">
-        <f>D13+C13</f>
+        <f t="shared" si="0"/>
         <v>3692.3339999999998</v>
       </c>
       <c r="F13" s="2">
         <v>3755.38</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2402.8900000000003</v>
       </c>
     </row>
@@ -1782,7 +1886,7 @@
         <v>2305.297</v>
       </c>
       <c r="E14" s="5">
-        <f>D14+C14</f>
+        <f t="shared" si="0"/>
         <v>5813.0370000000003</v>
       </c>
       <c r="F14" s="5">
@@ -1807,7 +1911,7 @@
         <v>2369.0459999999998</v>
       </c>
       <c r="E15" s="5">
-        <f>D15+C15</f>
+        <f t="shared" si="0"/>
         <v>6175.1659999999993</v>
       </c>
       <c r="F15" s="5">
@@ -2230,16 +2334,18 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2275,6 +2381,20 @@
       <c r="C2" s="3">
         <v>1160.97</v>
       </c>
+      <c r="D2" s="3">
+        <v>793.75699999999995</v>
+      </c>
+      <c r="E2" s="3">
+        <f>D2+C2</f>
+        <v>1954.7269999999999</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2039.096</v>
+      </c>
+      <c r="G2" s="3">
+        <f>F2-C2</f>
+        <v>878.12599999999998</v>
+      </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2286,6 +2406,20 @@
       <c r="C3" s="3">
         <v>1162.5</v>
       </c>
+      <c r="D3" s="3">
+        <v>792.75900000000001</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E15" si="0">D3+C3</f>
+        <v>1955.259</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2039.096</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G15" si="1">F3-C3</f>
+        <v>876.596</v>
+      </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2297,6 +2431,20 @@
       <c r="C4" s="3">
         <v>1235.6300000000001</v>
       </c>
+      <c r="D4" s="3">
+        <v>779.69299999999998</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>2015.3230000000001</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2039.096</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
+        <v>803.46599999999989</v>
+      </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -2308,6 +2456,20 @@
       <c r="C5" s="3">
         <v>1238.67</v>
       </c>
+      <c r="D5" s="3">
+        <v>800.42600000000004</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>2039.096</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2039.096</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="1"/>
+        <v>800.42599999999993</v>
+      </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -2319,6 +2481,20 @@
       <c r="C6" s="3">
         <v>1152.96</v>
       </c>
+      <c r="D6" s="3">
+        <v>837.827</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>1990.787</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2039.096</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>886.13599999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -2330,6 +2506,20 @@
       <c r="C7" s="3">
         <v>1150.55</v>
       </c>
+      <c r="D7" s="3">
+        <v>869.44399999999996</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>2019.9939999999999</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2039.096</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>888.54600000000005</v>
+      </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -2341,6 +2531,20 @@
       <c r="C8" s="2">
         <v>1296.0999999999999</v>
       </c>
+      <c r="D8" s="2">
+        <v>1330.703</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>2626.8029999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3575.4940000000001</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>2279.3940000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -2352,6 +2556,20 @@
       <c r="C9" s="2">
         <v>2279.25</v>
       </c>
+      <c r="D9" s="2">
+        <v>1255.1210000000001</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>3534.3710000000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3575.4940000000001</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>1296.2440000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -2363,6 +2581,20 @@
       <c r="C10" s="2">
         <v>1857.69</v>
       </c>
+      <c r="D10" s="2">
+        <v>1137.9960000000001</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>2995.6860000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3575.4940000000001</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>1717.8040000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -2374,6 +2606,20 @@
       <c r="C11" s="2">
         <v>1850.24</v>
       </c>
+      <c r="D11" s="2">
+        <v>1155.829</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>3006.069</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3575.4940000000001</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>1725.2540000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -2385,6 +2631,20 @@
       <c r="C12" s="2">
         <v>1294.23</v>
       </c>
+      <c r="D12" s="2">
+        <v>1486.7049999999999</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>2780.9349999999999</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3575.4940000000001</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>2281.2640000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
@@ -2396,6 +2656,20 @@
       <c r="C13" s="2">
         <v>2283.65</v>
       </c>
+      <c r="D13" s="2">
+        <v>1291.8440000000001</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>3575.4940000000001</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3575.4940000000001</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="1"/>
+        <v>1291.8440000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
@@ -2407,6 +2681,20 @@
       <c r="C14" s="5">
         <v>1030.3499999999999</v>
       </c>
+      <c r="D14" s="5">
+        <v>1341.1969999999999</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>2371.5469999999996</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2404.1309999999999</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>1373.7809999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
@@ -2417,6 +2705,20 @@
       </c>
       <c r="C15" s="5">
         <v>1023.8</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1380.3309999999999</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>2404.1309999999999</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2404.1309999999999</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="1"/>
+        <v>1380.3309999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2430,16 +2732,17 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="11.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="15.625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2470,10 +2773,24 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="C2" s="3">
-        <v>456.67</v>
+        <v>548.66999999999996</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1526.17</v>
+      </c>
+      <c r="E2" s="3">
+        <f>D2+C2</f>
+        <v>2074.84</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2082.587</v>
+      </c>
+      <c r="G2" s="3">
+        <f>F2-C2</f>
+        <v>1533.9169999999999</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2481,10 +2798,24 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="C3" s="3">
-        <v>491.41</v>
+        <v>546.86</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1524.933</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E15" si="0">D3+C3</f>
+        <v>2071.7930000000001</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2082.587</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G15" si="1">F3-C3</f>
+        <v>1535.7269999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2492,10 +2823,24 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="C4" s="3">
-        <v>545.48</v>
+        <v>493.22</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1494.528</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>1987.748</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2082.587</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
+        <v>1589.367</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2503,10 +2848,24 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="C5" s="3">
-        <v>495.19</v>
+        <v>491.41</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1515.44</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>2006.8500000000001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2082.587</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>1591.1769999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2514,10 +2873,24 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="C6" s="3">
-        <v>546.58000000000004</v>
+        <v>495.19</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1555.77</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>2050.96</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2082.587</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>1587.3969999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2525,10 +2898,24 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="C7" s="3">
         <v>495.2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1587.3869999999999</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>2082.587</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2082.587</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="1"/>
+        <v>1587.3869999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2536,10 +2923,24 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="C8" s="2">
-        <v>493.22</v>
+        <v>546.58000000000004</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1937.171</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>2483.7510000000002</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2722.7440000000001</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>2176.1640000000002</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2547,10 +2948,24 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="C9" s="2">
-        <v>548.66999999999996</v>
+        <v>623.84</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2011.1569999999999</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>2634.9969999999998</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2722.7440000000001</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>2098.904</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2558,10 +2973,24 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="C10" s="2">
-        <v>623.84</v>
+        <v>456.67</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1958.652</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>2415.3220000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2722.7440000000001</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>2266.0740000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2569,10 +2998,24 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="C11" s="2">
-        <v>546.86</v>
+        <v>456.67</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1951.8630000000001</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>2408.5329999999999</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2722.7440000000001</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>2266.0740000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2580,10 +3023,24 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2">
-        <v>456.67</v>
+        <v>545.48</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1955.4490000000001</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>2500.9290000000001</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2722.7440000000001</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>2177.2640000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2591,10 +3048,24 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2">
         <v>628.9</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2093.8440000000001</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>2722.7440000000001</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2722.7440000000001</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="1"/>
+        <v>2093.8440000000001</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2602,10 +3073,24 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="C14" s="5">
         <v>607.28</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2130.779</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>2738.0590000000002</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2785.3469999999998</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>2178.067</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2613,10 +3098,24 @@
         <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="C15" s="5">
         <v>610.66</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2174.6869999999999</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>2785.3469999999998</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2785.3469999999998</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="1"/>
+        <v>2174.6869999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2629,17 +3128,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A023F9-A630-40F2-90F0-68B5547D10FB}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="11.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2670,10 +3171,24 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="C2" s="3">
-        <v>762.59</v>
+        <v>1088.3900000000001</v>
+      </c>
+      <c r="D2" s="3">
+        <v>830.08399999999995</v>
+      </c>
+      <c r="E2" s="3">
+        <f>D2+C2</f>
+        <v>1918.4740000000002</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1931.7090000000001</v>
+      </c>
+      <c r="G2" s="3">
+        <f>F2-C2</f>
+        <v>843.31899999999996</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2681,10 +3196,24 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="C3" s="3">
-        <v>907.06</v>
+        <v>1081.2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>850.50900000000001</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E15" si="0">D3+C3</f>
+        <v>1931.7090000000001</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1931.7090000000001</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G15" si="1">F3-C3</f>
+        <v>850.50900000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2692,10 +3221,24 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="C4" s="3">
-        <v>828.35</v>
+        <v>925.11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>803.178</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>1728.288</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1931.7090000000001</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
+        <v>1006.599</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2703,10 +3246,24 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="C5" s="3">
-        <v>1011.26</v>
+        <v>907.06</v>
+      </c>
+      <c r="D5" s="3">
+        <v>858.28399999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>1765.3440000000001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1931.7090000000001</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>1024.6490000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2714,10 +3271,24 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="C6" s="3">
-        <v>827.66</v>
+        <v>1011.26</v>
+      </c>
+      <c r="D6" s="3">
+        <v>838.28</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>1849.54</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1931.7090000000001</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>920.44900000000007</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2725,10 +3296,24 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="C7" s="3">
         <v>1028.8</v>
+      </c>
+      <c r="D7" s="3">
+        <v>866.43700000000001</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>1895.2370000000001</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1931.7090000000001</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>902.90900000000011</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2736,10 +3321,24 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="C8" s="4">
-        <v>925.11</v>
+        <v>827.66</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1137.4449999999999</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>1965.105</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1965.105</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>1137.4450000000002</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2747,10 +3346,24 @@
         <v>11</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="C9" s="4">
         <v>705.2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1105.489</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>1810.6890000000001</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1965.105</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>1259.905</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2758,10 +3371,24 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="C10" s="4">
-        <v>1088.3900000000001</v>
+        <v>763.27</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1086.2360000000001</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>1849.5060000000001</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1965.105</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>1201.835</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2769,10 +3396,24 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="C11" s="4">
-        <v>1081.2</v>
+        <v>762.59</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1105.029</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>1867.6190000000001</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1965.105</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>1202.5149999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2780,10 +3421,24 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="C12" s="4">
-        <v>763.27</v>
+        <v>828.35</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1131.836</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>1960.1860000000001</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1965.105</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>1136.7550000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2791,10 +3446,24 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="C13" s="4">
         <v>701.81</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1134.9269999999999</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>1836.7369999999999</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1965.105</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>1263.2950000000001</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2802,10 +3471,24 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="C14" s="5">
         <v>900.56</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1469.058</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>2369.6179999999999</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2369.6179999999999</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>1469.058</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2813,10 +3496,24 @@
         <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="C15" s="5">
         <v>1080.8699999999999</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1128.5350000000001</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>2209.4049999999997</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2369.6179999999999</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>1288.748</v>
       </c>
     </row>
   </sheetData>

--- a/doc/PinMap.xlsx
+++ b/doc/PinMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.My_Tech_Studio\1.Project\MyOECU\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4F1DE8-21B6-4A18-A707-98E311ED7606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA578A94-42FA-4154-A8DF-42ECD4A60AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RGMII" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="185">
   <si>
     <t>MDIO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -635,6 +635,90 @@
   </si>
   <si>
     <t>IO34_15P</t>
+  </si>
+  <si>
+    <t>IO34_2P</t>
+  </si>
+  <si>
+    <t>IO34_2N</t>
+  </si>
+  <si>
+    <t>IO34_6P</t>
+  </si>
+  <si>
+    <t>IO34_6N</t>
+  </si>
+  <si>
+    <t>IO34_1N</t>
+  </si>
+  <si>
+    <t>IO34_1P</t>
+  </si>
+  <si>
+    <t>IO34_20P</t>
+  </si>
+  <si>
+    <t>IO34_5P</t>
+  </si>
+  <si>
+    <t>IO34_24N</t>
+  </si>
+  <si>
+    <t>IO34_24P</t>
+  </si>
+  <si>
+    <t>IO34_20N</t>
+  </si>
+  <si>
+    <t>IO34_5N</t>
+  </si>
+  <si>
+    <t>IO34_8N</t>
+  </si>
+  <si>
+    <t>IO34_4P</t>
+  </si>
+  <si>
+    <t>IO34_4N</t>
+  </si>
+  <si>
+    <t>IO34_19P</t>
+  </si>
+  <si>
+    <t>IO34_19N</t>
+  </si>
+  <si>
+    <t>IO34_13N</t>
+  </si>
+  <si>
+    <t>IO34_13P</t>
+  </si>
+  <si>
+    <t>IO34_11N</t>
+  </si>
+  <si>
+    <t>IO34_11P</t>
+  </si>
+  <si>
+    <t>IO34_7P</t>
+  </si>
+  <si>
+    <t>IO34_7N</t>
+  </si>
+  <si>
+    <t>IO34_23N</t>
+  </si>
+  <si>
+    <t>IO34_23P</t>
+  </si>
+  <si>
+    <t>IO34_8P</t>
+  </si>
+  <si>
+    <t>IO34_9P</t>
+  </si>
+  <si>
+    <t>IO34_9N</t>
   </si>
 </sst>
 </file>
@@ -664,7 +748,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -697,12 +781,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -720,7 +798,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -741,9 +819,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1028,17 +1103,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="6" width="9" style="7"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1054,10 +1127,10 @@
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="1" t="s">
         <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1086,11 +1159,11 @@
       <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>62</v>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>48</v>
@@ -1118,11 +1191,11 @@
       <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>63</v>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>49</v>
@@ -1150,11 +1223,11 @@
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>64</v>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>50</v>
@@ -1182,10 +1255,10 @@
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1214,11 +1287,11 @@
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>66</v>
+      <c r="F6" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>52</v>
@@ -1246,11 +1319,11 @@
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>67</v>
+      <c r="F7" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>53</v>
@@ -1278,11 +1351,11 @@
       <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>61</v>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>47</v>
@@ -1310,11 +1383,11 @@
       <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>57</v>
+      <c r="F9" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>43</v>
@@ -1342,11 +1415,11 @@
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>58</v>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>44</v>
@@ -1374,11 +1447,11 @@
       <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>59</v>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>45</v>
@@ -1406,11 +1479,11 @@
       <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>60</v>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>46</v>
@@ -1438,10 +1511,10 @@
       <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1470,10 +1543,10 @@
       <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1502,10 +1575,10 @@
       <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1934,16 +2007,18 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1974,10 +2049,24 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="C2" s="3">
-        <v>1343.89</v>
+        <v>1265</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1142.229</v>
+      </c>
+      <c r="E2" s="3">
+        <f>D2+C2</f>
+        <v>2407.2290000000003</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2512.3770000000004</v>
+      </c>
+      <c r="G2" s="3">
+        <f>F2-C2</f>
+        <v>1247.3770000000004</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1985,10 +2074,24 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="C3" s="3">
-        <v>1540.72</v>
+        <v>1260.32</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1145.491</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E15" si="0">D3+C3</f>
+        <v>2405.8109999999997</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2512.3770000000004</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G13" si="1">F3-C3</f>
+        <v>1252.0570000000005</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1996,10 +2099,24 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="C4" s="3">
-        <v>1335.39</v>
+        <v>1343.89</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1158.579</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>2502.4690000000001</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2512.3770000000004</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
+        <v>1168.4870000000003</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2007,10 +2124,24 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="C5" s="3">
-        <v>1540.71</v>
+        <v>1335.39</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1176.9870000000001</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>2512.3770000000004</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2512.3770000000004</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="1"/>
+        <v>1176.9870000000003</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2018,10 +2149,24 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="C6" s="3">
-        <v>775.22</v>
+        <v>724.86</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1535.547</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>2260.4070000000002</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2512.3770000000004</v>
+      </c>
+      <c r="G6" s="3">
+        <f>F6-C6</f>
+        <v>1787.5170000000003</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2029,10 +2174,24 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="C7" s="3">
-        <v>775.22</v>
+        <v>706.37</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1510.875</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>2217.2449999999999</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2512.3770000000004</v>
+      </c>
+      <c r="G7" s="3">
+        <f>F7-C7</f>
+        <v>1806.0070000000005</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2040,10 +2199,24 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="C8" s="2">
-        <v>1488.9</v>
+        <v>1540.71</v>
+      </c>
+      <c r="D8" s="2">
+        <v>996.67899999999997</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>2537.3890000000001</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2555.6770000000001</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>1014.9670000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2051,10 +2224,24 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="C9" s="2">
         <v>1401.12</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1063.3499999999999</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>2464.4699999999998</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2555.6770000000001</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>1154.5570000000002</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2062,10 +2249,24 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="C10" s="2">
-        <v>1265</v>
+        <v>1487.9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1019.402</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>2507.3020000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2555.6770000000001</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>1067.777</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2073,10 +2274,24 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="C11" s="2">
-        <v>1487.9</v>
+        <v>1488.9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1012.524</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>2501.424</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2555.6770000000001</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>1066.777</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2084,10 +2299,24 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="C12" s="2">
-        <v>1260.32</v>
+        <v>1540.72</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1014.957</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>2555.6770000000001</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2555.6770000000001</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="1"/>
+        <v>1014.9570000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2095,10 +2324,24 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="C13" s="2">
         <v>1400.22</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1133.7370000000001</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>2533.9570000000003</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2555.6770000000001</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>1155.4570000000001</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2106,10 +2349,17 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="C14" s="5">
-        <v>724.86</v>
+        <v>775.22</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1275.6969999999999</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
+        <v>2050.9169999999999</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2117,10 +2367,17 @@
         <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="C15" s="5">
-        <v>706.37</v>
+        <v>775.22</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1328.6849999999999</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
+        <v>2103.9049999999997</v>
       </c>
     </row>
   </sheetData>
@@ -2133,17 +2390,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93261651-9ACA-48CF-A58C-FEFFF0361CF5}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2174,10 +2433,24 @@
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="C2" s="3">
-        <v>1235.73</v>
+        <v>704.56</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2001.3040000000001</v>
+      </c>
+      <c r="E2" s="3">
+        <f>D2+C2</f>
+        <v>2705.864</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3042.5349999999999</v>
+      </c>
+      <c r="G2" s="3">
+        <f>F2-C2</f>
+        <v>2337.9749999999999</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2185,10 +2458,24 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>63</v>
+        <v>172</v>
       </c>
       <c r="C3" s="3">
-        <v>834.43</v>
+        <v>832.76</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1984.69</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E15" si="0">D3+C3</f>
+        <v>2817.45</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3042.5349999999999</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G15" si="1">F3-C3</f>
+        <v>2209.7749999999996</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2196,10 +2483,24 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="C4" s="3">
-        <v>720.68</v>
+        <v>834.43</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1954.1949999999999</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>2788.625</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3042.5349999999999</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
+        <v>2208.105</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2207,10 +2508,24 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="C5" s="3">
         <v>1035.8699999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1957.7719999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>2993.6419999999998</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3042.5349999999999</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>2006.665</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2218,10 +2533,24 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="C6" s="3">
-        <v>715.62</v>
+        <v>1039.74</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1971.3330000000001</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>3011.0730000000003</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3042.5349999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>2002.7949999999998</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2229,10 +2558,24 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="C7" s="3">
-        <v>1039.74</v>
+        <v>715.62</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2326.915</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>3042.5349999999999</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3042.5349999999999</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="1"/>
+        <v>2326.915</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2240,10 +2583,24 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>177</v>
       </c>
       <c r="C8" s="2">
-        <v>832.76</v>
+        <v>720.68</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2266.5810000000001</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>2987.261</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3556.1410000000005</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>2835.4610000000007</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2251,10 +2608,24 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="C9" s="2">
-        <v>704.56</v>
+        <v>701.95</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2368.1309999999999</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>3070.0810000000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3556.1410000000005</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>2854.1910000000007</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2262,10 +2633,24 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="C10" s="2">
         <v>701.95</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2323.8969999999999</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>3025.8469999999998</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3556.1410000000005</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>2854.1910000000007</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2273,10 +2658,24 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="C11" s="2">
-        <v>701.95</v>
+        <v>1239.3900000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2316.7510000000002</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>3556.1410000000005</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3556.1410000000005</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="1"/>
+        <v>2316.7510000000002</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2284,10 +2683,24 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="C12" s="2">
-        <v>1239.3900000000001</v>
+        <v>628.9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2298.0619999999999</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>2926.962</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3556.1410000000005</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>2927.2410000000004</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2295,10 +2708,24 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>182</v>
       </c>
       <c r="C13" s="2">
         <v>726.65</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2451.0259999999998</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>3177.6759999999999</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3556.1410000000005</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>2829.4910000000004</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2306,10 +2733,24 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c r="C14" s="5">
         <v>736.26</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2535.7179999999998</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>3271.9780000000001</v>
+      </c>
+      <c r="F14" s="5">
+        <v>3322.0919999999996</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>2585.8319999999994</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2317,10 +2758,24 @@
         <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="C15" s="5">
         <v>733.01</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2589.0819999999999</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>3322.0919999999996</v>
+      </c>
+      <c r="F15" s="5">
+        <v>3322.0919999999996</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="1"/>
+        <v>2589.0819999999994</v>
       </c>
     </row>
   </sheetData>
@@ -2466,7 +2921,7 @@
       <c r="F5" s="3">
         <v>2039.096</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <f t="shared" si="1"/>
         <v>800.42599999999993</v>
       </c>
@@ -2666,7 +3121,7 @@
       <c r="F13" s="2">
         <v>3575.4940000000001</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <f t="shared" si="1"/>
         <v>1291.8440000000001</v>
       </c>
@@ -2716,7 +3171,7 @@
       <c r="F15" s="5">
         <v>2404.1309999999999</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <f t="shared" si="1"/>
         <v>1380.3309999999999</v>
       </c>
@@ -2913,7 +3368,7 @@
       <c r="F7" s="3">
         <v>2082.587</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <f t="shared" si="1"/>
         <v>1587.3869999999999</v>
       </c>
@@ -3063,7 +3518,7 @@
       <c r="F13" s="2">
         <v>2722.7440000000001</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <f t="shared" si="1"/>
         <v>2093.8440000000001</v>
       </c>
@@ -3113,7 +3568,7 @@
       <c r="F15" s="5">
         <v>2785.3469999999998</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <f t="shared" si="1"/>
         <v>2174.6869999999999</v>
       </c>
